--- a/static/files/fms/maintenance/result_request_for_quotation.xlsx
+++ b/static/files/fms/maintenance/result_request_for_quotation.xlsx
@@ -772,7 +772,7 @@
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="36" t="inlineStr">
         <is>
-          <t>2021年04月13日</t>
+          <t>2021年12月10日</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       <c r="N9" s="4" t="n"/>
       <c r="O9" s="38" t="inlineStr">
         <is>
-          <t>神田　敏彦</t>
+          <t>山本　真生</t>
         </is>
       </c>
       <c r="AD9" s="7" t="n"/>
@@ -1004,7 +1004,7 @@
       <c r="N12" s="4" t="n"/>
       <c r="O12" s="34" t="inlineStr">
         <is>
-          <t>t-kanda@iskweb.co.jp</t>
+          <t>mas-yamamoto@iskweb.co.jp</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G19" s="32" t="n">
-        <v>801248</v>
+        <v>802937</v>
       </c>
       <c r="T19" s="30" t="n"/>
       <c r="U19" s="30" t="n"/>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="G21" s="30" t="inlineStr">
         <is>
-          <t>自動滴定装置(ALT-1000SC12)点検校正</t>
+          <t>小口依頼ﾃｽﾄ検査</t>
         </is>
       </c>
       <c r="T21" s="30" t="n"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 自動滴定装置(ALT-1000SC12)点検校正</t>
+          <t>111</t>
         </is>
       </c>
       <c r="T23" s="30" t="n"/>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="G29" s="30" t="inlineStr">
         <is>
-          <t>2021年04月21日 ～ 2021年04月21日</t>
+          <t>2021年12月09日 ～ 2021年12月09日</t>
         </is>
       </c>
       <c r="T29" s="30" t="n"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G31" s="30" t="inlineStr">
         <is>
-          <t>化成品工程管理G 工程管理</t>
+          <t>設備戦略G 合五工場</t>
         </is>
       </c>
       <c r="T31" s="30" t="n"/>
